--- a/Params.xlsx
+++ b/Params.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\TU-Berlin\Projects\2.RC_DynamicNets\7.Pruning_RC\PrunedRC\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merte\Documents\PrunedRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3A8C94-5C2D-40C3-9FE1-DDE9B703F4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6AA484-DBB3-4934-8F42-FB319793989C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1680" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1905" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
-  <si>
-    <t>Nodes_init</t>
-  </si>
-  <si>
-    <t>density_init</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>leakage_rate</t>
   </si>
@@ -39,12 +33,6 @@
     <t>ridge_alpha</t>
   </si>
   <si>
-    <t>frac_inp_init</t>
-  </si>
-  <si>
-    <t>frac_out_init</t>
-  </si>
-  <si>
     <t>Stop_minima</t>
   </si>
   <si>
@@ -69,21 +57,9 @@
     <t>Model Reps</t>
   </si>
   <si>
-    <t>Narma5</t>
-  </si>
-  <si>
-    <t>Narma10</t>
-  </si>
-  <si>
-    <t>Narma15</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
-    <t>RC Parameters</t>
-  </si>
-  <si>
     <t>Pruning Parameters</t>
   </si>
   <si>
@@ -144,12 +120,6 @@
     <t>N15C2</t>
   </si>
   <si>
-    <t>SinCos1</t>
-  </si>
-  <si>
-    <t>SinCos2</t>
-  </si>
-  <si>
     <t>SC1A1</t>
   </si>
   <si>
@@ -184,6 +154,48 @@
   </si>
   <si>
     <t>SC2C2</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>RC Parameters (initial, before pruning)</t>
+  </si>
+  <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>fraction_input</t>
+  </si>
+  <si>
+    <t>fraction_output</t>
+  </si>
+  <si>
+    <t>activation</t>
+  </si>
+  <si>
+    <t>tanh</t>
+  </si>
+  <si>
+    <t>narma5</t>
+  </si>
+  <si>
+    <t>narma10</t>
+  </si>
+  <si>
+    <t>narma15</t>
+  </si>
+  <si>
+    <t>sincos</t>
+  </si>
+  <si>
+    <t>sincos2</t>
   </si>
 </sst>
 </file>
@@ -354,7 +366,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,7 +389,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
@@ -451,6 +463,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -734,112 +755,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="31" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" style="31" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="31"/>
-    <col min="19" max="19" width="11.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="31"/>
+    <col min="20" max="20" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
-      <c r="K1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="14"/>
+      <c r="J1" s="13"/>
+      <c r="L1" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
+      <c r="R1" s="14"/>
+    </row>
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" s="9" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="O2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="T2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>14</v>
+      <c r="B3" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16">
@@ -860,39 +891,42 @@
       <c r="I3" s="16">
         <v>0.5</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
-        <v>15</v>
+      <c r="J3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="M3" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N3" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="O3" s="18" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0.25</v>
       </c>
       <c r="P3" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="15" t="s">
         <v>14</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16">
@@ -913,39 +947,42 @@
       <c r="I4" s="16">
         <v>0.5</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <v>15</v>
+      <c r="J4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="M4" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N4" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="O4" s="18" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0.25</v>
       </c>
       <c r="P4" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R4" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="21">
@@ -966,39 +1003,42 @@
       <c r="I5" s="21">
         <v>0.5</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
-        <v>15</v>
+      <c r="J5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="M5" s="23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N5" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="O5" s="23" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O5" s="23">
+        <v>0.25</v>
       </c>
       <c r="P5" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="21">
@@ -1019,39 +1059,42 @@
       <c r="I6" s="21">
         <v>0.5</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="23">
-        <v>15</v>
+      <c r="J6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="M6" s="23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N6" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="O6" s="23" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O6" s="23">
+        <v>0.25</v>
       </c>
       <c r="P6" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="25">
@@ -1072,39 +1115,42 @@
       <c r="I7" s="25">
         <v>0.5</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27">
-        <v>15</v>
+      <c r="J7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="27" t="b">
+        <v>0</v>
       </c>
       <c r="M7" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N7" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="O7" s="27" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0.25</v>
       </c>
       <c r="P7" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25">
@@ -1125,55 +1171,60 @@
       <c r="I8" s="25">
         <v>0.5</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="27">
-        <v>15</v>
+      <c r="J8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="27" t="b">
+        <v>0</v>
       </c>
       <c r="M8" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N8" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="27" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0.25</v>
       </c>
       <c r="P8" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R8" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
+      <c r="B9" s="34"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="K9" s="30"/>
+      <c r="J9" s="16"/>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-    </row>
-    <row r="10" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R9" s="30"/>
+    </row>
+    <row r="10" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16">
@@ -1194,39 +1245,42 @@
       <c r="I10" s="16">
         <v>0.5</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
-        <v>15</v>
+      <c r="J10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="M10" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N10" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="O10" s="18" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O10" s="18">
+        <v>0.25</v>
       </c>
       <c r="P10" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R10" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="16">
@@ -1247,39 +1301,42 @@
       <c r="I11" s="16">
         <v>0.5</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
-        <v>15</v>
+      <c r="J11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="M11" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N11" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="O11" s="18" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0.25</v>
       </c>
       <c r="P11" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21">
@@ -1300,39 +1357,42 @@
       <c r="I12" s="21">
         <v>0.5</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
-        <v>15</v>
+      <c r="J12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="M12" s="23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N12" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="O12" s="23" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O12" s="23">
+        <v>0.25</v>
       </c>
       <c r="P12" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R12" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="21">
@@ -1353,39 +1413,42 @@
       <c r="I13" s="21">
         <v>0.5</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
-        <v>15</v>
+      <c r="J13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="M13" s="23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N13" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="O13" s="23" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O13" s="23">
+        <v>0.25</v>
       </c>
       <c r="P13" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R13" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="25">
@@ -1406,39 +1469,42 @@
       <c r="I14" s="25">
         <v>0.5</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="27">
-        <v>15</v>
+      <c r="J14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="27" t="b">
+        <v>0</v>
       </c>
       <c r="M14" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N14" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="O14" s="27" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O14" s="27">
+        <v>0.25</v>
       </c>
       <c r="P14" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R14" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="25">
@@ -1459,55 +1525,60 @@
       <c r="I15" s="25">
         <v>0.5</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="27">
-        <v>15</v>
+      <c r="J15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="27" t="b">
+        <v>0</v>
       </c>
       <c r="M15" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N15" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="O15" s="27" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O15" s="27">
+        <v>0.25</v>
       </c>
       <c r="P15" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R15" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
+      <c r="B16" s="34"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="K16" s="30"/>
+      <c r="J16" s="16"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-    </row>
-    <row r="17" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R16" s="30"/>
+    </row>
+    <row r="17" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="16">
@@ -1528,39 +1599,42 @@
       <c r="I17" s="16">
         <v>0.5</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="18">
-        <v>15</v>
+      <c r="J17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="M17" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N17" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="O17" s="18" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0.25</v>
       </c>
       <c r="P17" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R17" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16">
@@ -1581,39 +1655,42 @@
       <c r="I18" s="16">
         <v>0.5</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="18">
-        <v>15</v>
+      <c r="J18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="M18" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N18" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="O18" s="18" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0.25</v>
       </c>
       <c r="P18" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R18" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="21">
@@ -1634,39 +1711,42 @@
       <c r="I19" s="21">
         <v>0.5</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="23">
-        <v>15</v>
+      <c r="J19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="M19" s="23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N19" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="O19" s="23" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O19" s="23">
+        <v>0.25</v>
       </c>
       <c r="P19" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="21">
@@ -1687,39 +1767,42 @@
       <c r="I20" s="21">
         <v>0.5</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="23">
-        <v>15</v>
+      <c r="J20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="M20" s="23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N20" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="O20" s="23" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O20" s="23">
+        <v>0.25</v>
       </c>
       <c r="P20" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R20" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="25">
@@ -1740,39 +1823,42 @@
       <c r="I21" s="25">
         <v>0.5</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="27">
-        <v>15</v>
+      <c r="J21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="24"/>
+      <c r="L21" s="27" t="b">
+        <v>0</v>
       </c>
       <c r="M21" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N21" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="O21" s="27" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O21" s="27">
+        <v>0.25</v>
       </c>
       <c r="P21" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R21" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="25">
@@ -1793,42 +1879,47 @@
       <c r="I22" s="25">
         <v>0.5</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="27">
-        <v>15</v>
+      <c r="J22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="27" t="b">
+        <v>0</v>
       </c>
       <c r="M22" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N22" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="O22" s="27" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O22" s="27">
+        <v>0.25</v>
       </c>
       <c r="P22" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="32"/>
-    </row>
-    <row r="24" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B23" s="35"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="16">
@@ -1849,39 +1940,42 @@
       <c r="I24" s="16">
         <v>0.5</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="18">
-        <v>15</v>
+      <c r="J24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="M24" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N24" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="O24" s="18" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O24" s="18">
+        <v>0.25</v>
       </c>
       <c r="P24" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R24" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="16">
@@ -1902,39 +1996,42 @@
       <c r="I25" s="16">
         <v>0.5</v>
       </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="18">
-        <v>15</v>
+      <c r="J25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="M25" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N25" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="O25" s="18" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O25" s="18">
+        <v>0.25</v>
       </c>
       <c r="P25" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R25" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="21">
@@ -1955,39 +2052,42 @@
       <c r="I26" s="21">
         <v>0.5</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="23">
-        <v>15</v>
+      <c r="J26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="20"/>
+      <c r="L26" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="M26" s="23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N26" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="O26" s="23" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O26" s="23">
+        <v>0.25</v>
       </c>
       <c r="P26" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R26" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="21">
@@ -2008,39 +2108,42 @@
       <c r="I27" s="21">
         <v>0.5</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="23">
-        <v>15</v>
+      <c r="J27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="20"/>
+      <c r="L27" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="M27" s="23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N27" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="O27" s="23" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O27" s="23">
+        <v>0.25</v>
       </c>
       <c r="P27" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R27" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="25">
@@ -2061,39 +2164,42 @@
       <c r="I28" s="25">
         <v>0.5</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="27">
-        <v>15</v>
+      <c r="J28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="24"/>
+      <c r="L28" s="27" t="b">
+        <v>0</v>
       </c>
       <c r="M28" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N28" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="O28" s="27" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O28" s="27">
+        <v>0.25</v>
       </c>
       <c r="P28" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R28" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="25">
@@ -2114,36 +2220,39 @@
       <c r="I29" s="25">
         <v>0.5</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="27">
-        <v>15</v>
+      <c r="J29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="24"/>
+      <c r="L29" s="27" t="b">
+        <v>0</v>
       </c>
       <c r="M29" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N29" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="O29" s="27" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O29" s="27">
+        <v>0.25</v>
       </c>
       <c r="P29" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R29" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="19"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -2151,23 +2260,24 @@
       <c r="G30" s="29"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="30"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
       <c r="N30" s="30"/>
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="19"/>
+      <c r="R30" s="30"/>
       <c r="S30" s="19"/>
-    </row>
-    <row r="31" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="T30" s="19"/>
+    </row>
+    <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="16">
@@ -2188,39 +2298,42 @@
       <c r="I31" s="16">
         <v>0.5</v>
       </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="18">
-        <v>15</v>
+      <c r="J31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="15"/>
+      <c r="L31" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="M31" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N31" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="O31" s="18" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O31" s="18">
+        <v>0.25</v>
       </c>
       <c r="P31" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R31" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="16">
@@ -2241,39 +2354,42 @@
       <c r="I32" s="16">
         <v>0.5</v>
       </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="18">
-        <v>15</v>
+      <c r="J32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="M32" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N32" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="O32" s="18" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O32" s="18">
+        <v>0.25</v>
       </c>
       <c r="P32" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R32" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="21">
@@ -2294,39 +2410,42 @@
       <c r="I33" s="21">
         <v>0.5</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="23">
-        <v>15</v>
+      <c r="J33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="20"/>
+      <c r="L33" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="M33" s="23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N33" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="O33" s="23" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O33" s="23">
+        <v>0.25</v>
       </c>
       <c r="P33" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R33" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="20" t="s">
         <v>40</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="21">
@@ -2347,39 +2466,42 @@
       <c r="I34" s="21">
         <v>0.5</v>
       </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="23">
-        <v>15</v>
+      <c r="J34" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" s="20"/>
+      <c r="L34" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="M34" s="23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N34" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="O34" s="23" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O34" s="23">
+        <v>0.25</v>
       </c>
       <c r="P34" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R34" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="25">
@@ -2400,39 +2522,42 @@
       <c r="I35" s="25">
         <v>0.5</v>
       </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="27">
-        <v>15</v>
+      <c r="J35" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="24"/>
+      <c r="L35" s="27" t="b">
+        <v>0</v>
       </c>
       <c r="M35" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N35" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="O35" s="27" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O35" s="27">
+        <v>0.25</v>
       </c>
       <c r="P35" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="R35" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="25">
@@ -2453,30 +2578,33 @@
       <c r="I36" s="25">
         <v>0.5</v>
       </c>
-      <c r="J36" s="24"/>
-      <c r="K36" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="27">
-        <v>15</v>
+      <c r="J36" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="24"/>
+      <c r="L36" s="27" t="b">
+        <v>0</v>
       </c>
       <c r="M36" s="27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N36" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="O36" s="27" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O36" s="27">
+        <v>0.25</v>
       </c>
       <c r="P36" s="27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24">
+        <v>0</v>
+      </c>
+      <c r="R36" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24">
         <v>25</v>
       </c>
     </row>

--- a/Params.xlsx
+++ b/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merte\Documents\PrunedRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6AA484-DBB3-4934-8F42-FB319793989C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D710F34C-24F8-4D95-98B4-1D338B8FBEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1905" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>

--- a/Params.xlsx
+++ b/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merte\Documents\PrunedRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D710F34C-24F8-4D95-98B4-1D338B8FBEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D446AFB-F160-458A-B8AF-37D7FE9D09E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1905" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>leakage_rate</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>sincos2</t>
+  </si>
+  <si>
+    <t>N5A3</t>
   </si>
 </sst>
 </file>
@@ -755,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -978,64 +981,64 @@
       </c>
     </row>
     <row r="5" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
+      <c r="A5" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21">
-        <v>75</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="F5" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="G5" s="22">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H5" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="21">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16">
+        <v>50</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="16">
         <v>0.5</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="23">
-        <v>15</v>
-      </c>
-      <c r="N5" s="23">
-        <v>5</v>
-      </c>
-      <c r="O5" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="P5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20">
+      <c r="K5" s="15"/>
+      <c r="L5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
+        <v>15</v>
+      </c>
+      <c r="N5" s="18">
+        <v>5</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="P5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>52</v>
@@ -1045,7 +1048,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="21">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F6" s="21">
         <v>0.9</v>
@@ -1090,64 +1093,64 @@
       </c>
     </row>
     <row r="7" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
+      <c r="A7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25">
-        <v>100</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H7" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="25">
+      <c r="C7" s="20"/>
+      <c r="D7" s="21">
+        <v>75</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="21">
         <v>0.5</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="27">
-        <v>15</v>
-      </c>
-      <c r="N7" s="27">
-        <v>5</v>
-      </c>
-      <c r="O7" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="P7" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24">
+      <c r="K7" s="20"/>
+      <c r="L7" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="23">
+        <v>15</v>
+      </c>
+      <c r="N7" s="23">
+        <v>5</v>
+      </c>
+      <c r="O7" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="P7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>52</v>
@@ -1157,7 +1160,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="25">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F8" s="25">
         <v>0.9</v>
@@ -1202,82 +1205,82 @@
       </c>
     </row>
     <row r="9" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="34"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="16"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25">
+        <v>100</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="27">
+        <v>15</v>
+      </c>
+      <c r="N9" s="27">
+        <v>5</v>
+      </c>
+      <c r="O9" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="P9" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16">
-        <v>50</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <v>15</v>
-      </c>
-      <c r="N10" s="18">
-        <v>5</v>
-      </c>
-      <c r="O10" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="P10" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15">
-        <v>25</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="34"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="16"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>53</v>
@@ -1287,7 +1290,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="16">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F11" s="16">
         <v>0.9</v>
@@ -1332,64 +1335,64 @@
       </c>
     </row>
     <row r="12" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
+      <c r="A12" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21">
-        <v>75</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="22">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="21">
+      <c r="C12" s="15"/>
+      <c r="D12" s="16">
+        <v>50</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="16">
         <v>0.5</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="23">
-        <v>15</v>
-      </c>
-      <c r="N12" s="23">
-        <v>5</v>
-      </c>
-      <c r="O12" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="P12" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20">
+      <c r="K12" s="15"/>
+      <c r="L12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="18">
+        <v>15</v>
+      </c>
+      <c r="N12" s="18">
+        <v>5</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="P12" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>53</v>
@@ -1399,7 +1402,7 @@
         <v>75</v>
       </c>
       <c r="E13" s="21">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F13" s="21">
         <v>0.9</v>
@@ -1444,64 +1447,64 @@
       </c>
     </row>
     <row r="14" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>23</v>
+      <c r="A14" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25">
-        <v>100</v>
-      </c>
-      <c r="E14" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G14" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H14" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="25">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <v>75</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="21">
         <v>0.5</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="27">
-        <v>15</v>
-      </c>
-      <c r="N14" s="27">
-        <v>5</v>
-      </c>
-      <c r="O14" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="P14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24">
+      <c r="K14" s="20"/>
+      <c r="L14" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="23">
+        <v>15</v>
+      </c>
+      <c r="N14" s="23">
+        <v>5</v>
+      </c>
+      <c r="O14" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="P14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>53</v>
@@ -1511,7 +1514,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="25">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F15" s="25">
         <v>0.9</v>
@@ -1556,82 +1559,82 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="34"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="16"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-    </row>
-    <row r="17" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16">
-        <v>50</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G17" s="17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="18">
-        <v>15</v>
-      </c>
-      <c r="N17" s="18">
-        <v>5</v>
-      </c>
-      <c r="O17" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="P17" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15">
-        <v>25</v>
-      </c>
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25">
+        <v>100</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="27">
+        <v>15</v>
+      </c>
+      <c r="N16" s="27">
+        <v>5</v>
+      </c>
+      <c r="O16" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="P16" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="34"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="16"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>54</v>
@@ -1641,7 +1644,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="16">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F18" s="16">
         <v>0.9</v>
@@ -1686,64 +1689,64 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
+      <c r="A19" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21">
-        <v>75</v>
-      </c>
-      <c r="E19" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="F19" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="G19" s="22">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H19" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="21">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16">
+        <v>50</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="16">
         <v>0.5</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="23">
-        <v>15</v>
-      </c>
-      <c r="N19" s="23">
-        <v>5</v>
-      </c>
-      <c r="O19" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="P19" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20">
+      <c r="K19" s="15"/>
+      <c r="L19" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <v>15</v>
+      </c>
+      <c r="N19" s="18">
+        <v>5</v>
+      </c>
+      <c r="O19" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="P19" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>54</v>
@@ -1753,7 +1756,7 @@
         <v>75</v>
       </c>
       <c r="E20" s="21">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F20" s="21">
         <v>0.9</v>
@@ -1798,64 +1801,64 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>29</v>
+      <c r="A21" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25">
-        <v>100</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G21" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H21" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I21" s="25">
+      <c r="C21" s="20"/>
+      <c r="D21" s="21">
+        <v>75</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G21" s="22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="21">
         <v>0.5</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="27">
-        <v>15</v>
-      </c>
-      <c r="N21" s="27">
-        <v>5</v>
-      </c>
-      <c r="O21" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="P21" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24">
+      <c r="K21" s="20"/>
+      <c r="L21" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="23">
+        <v>15</v>
+      </c>
+      <c r="N21" s="23">
+        <v>5</v>
+      </c>
+      <c r="O21" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="P21" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>54</v>
@@ -1865,7 +1868,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="25">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F22" s="25">
         <v>0.9</v>
@@ -1909,70 +1912,70 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="32"/>
-      <c r="B23" s="35"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16">
-        <v>50</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G24" s="17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H24" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="18">
-        <v>15</v>
-      </c>
-      <c r="N24" s="18">
-        <v>5</v>
-      </c>
-      <c r="O24" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="P24" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15">
-        <v>25</v>
-      </c>
+    <row r="23" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25">
+        <v>100</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G23" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="27">
+        <v>15</v>
+      </c>
+      <c r="N23" s="27">
+        <v>5</v>
+      </c>
+      <c r="O23" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="P23" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="32"/>
+      <c r="B24" s="35"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>55</v>
@@ -1982,7 +1985,7 @@
         <v>50</v>
       </c>
       <c r="E25" s="16">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F25" s="16">
         <v>0.9</v>
@@ -2027,64 +2030,64 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>33</v>
+      <c r="A26" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21">
-        <v>75</v>
-      </c>
-      <c r="E26" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="G26" s="22">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H26" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="21">
+      <c r="C26" s="15"/>
+      <c r="D26" s="16">
+        <v>50</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G26" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="16">
         <v>0.5</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="23">
-        <v>15</v>
-      </c>
-      <c r="N26" s="23">
-        <v>5</v>
-      </c>
-      <c r="O26" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="P26" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20">
+      <c r="K26" s="15"/>
+      <c r="L26" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="18">
+        <v>15</v>
+      </c>
+      <c r="N26" s="18">
+        <v>5</v>
+      </c>
+      <c r="O26" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="P26" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>55</v>
@@ -2094,7 +2097,7 @@
         <v>75</v>
       </c>
       <c r="E27" s="21">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F27" s="21">
         <v>0.9</v>
@@ -2139,64 +2142,64 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>35</v>
+      <c r="A28" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25">
-        <v>100</v>
-      </c>
-      <c r="E28" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="F28" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G28" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H28" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="25">
+      <c r="C28" s="20"/>
+      <c r="D28" s="21">
+        <v>75</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G28" s="22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="21">
         <v>0.5</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" s="27">
-        <v>15</v>
-      </c>
-      <c r="N28" s="27">
-        <v>5</v>
-      </c>
-      <c r="O28" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="P28" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24">
+      <c r="K28" s="20"/>
+      <c r="L28" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="23">
+        <v>15</v>
+      </c>
+      <c r="N28" s="23">
+        <v>5</v>
+      </c>
+      <c r="O28" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="P28" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>55</v>
@@ -2206,7 +2209,7 @@
         <v>100</v>
       </c>
       <c r="E29" s="25">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F29" s="25">
         <v>0.9</v>
@@ -2251,86 +2254,86 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
+      <c r="A30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25">
+        <v>100</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G30" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H30" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="24"/>
+      <c r="L30" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="27">
+        <v>15</v>
+      </c>
+      <c r="N30" s="27">
+        <v>5</v>
+      </c>
+      <c r="O30" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="P30" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16">
-        <v>50</v>
-      </c>
-      <c r="E31" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="F31" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G31" s="17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H31" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="18">
-        <v>15</v>
-      </c>
-      <c r="N31" s="18">
-        <v>5</v>
-      </c>
-      <c r="O31" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="P31" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R31" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15">
-        <v>25</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>56</v>
@@ -2340,7 +2343,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="16">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F32" s="16">
         <v>0.9</v>
@@ -2385,64 +2388,64 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>39</v>
+      <c r="A33" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21">
-        <v>75</v>
-      </c>
-      <c r="E33" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="F33" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="G33" s="22">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H33" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I33" s="21">
+      <c r="C33" s="15"/>
+      <c r="D33" s="16">
+        <v>50</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G33" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="16">
         <v>0.5</v>
       </c>
       <c r="J33" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K33" s="20"/>
-      <c r="L33" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" s="23">
-        <v>15</v>
-      </c>
-      <c r="N33" s="23">
-        <v>5</v>
-      </c>
-      <c r="O33" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="P33" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R33" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20">
+      <c r="K33" s="15"/>
+      <c r="L33" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="18">
+        <v>15</v>
+      </c>
+      <c r="N33" s="18">
+        <v>5</v>
+      </c>
+      <c r="O33" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="P33" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>56</v>
@@ -2452,7 +2455,7 @@
         <v>75</v>
       </c>
       <c r="E34" s="21">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F34" s="21">
         <v>0.9</v>
@@ -2497,64 +2500,64 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>41</v>
+      <c r="A35" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25">
-        <v>100</v>
-      </c>
-      <c r="E35" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="F35" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G35" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H35" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I35" s="25">
+      <c r="C35" s="20"/>
+      <c r="D35" s="21">
+        <v>75</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G35" s="22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H35" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="21">
         <v>0.5</v>
       </c>
       <c r="J35" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="24"/>
-      <c r="L35" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" s="27">
-        <v>15</v>
-      </c>
-      <c r="N35" s="27">
-        <v>5</v>
-      </c>
-      <c r="O35" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="P35" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R35" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24">
+      <c r="K35" s="20"/>
+      <c r="L35" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="23">
+        <v>15</v>
+      </c>
+      <c r="N35" s="23">
+        <v>5</v>
+      </c>
+      <c r="O35" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="P35" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>56</v>
@@ -2564,7 +2567,7 @@
         <v>100</v>
       </c>
       <c r="E36" s="25">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F36" s="25">
         <v>0.9</v>
@@ -2605,6 +2608,62 @@
       </c>
       <c r="S36" s="24"/>
       <c r="T36" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25">
+        <v>100</v>
+      </c>
+      <c r="E37" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G37" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H37" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="24"/>
+      <c r="L37" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="27">
+        <v>15</v>
+      </c>
+      <c r="N37" s="27">
+        <v>5</v>
+      </c>
+      <c r="O37" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="P37" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R37" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24">
         <v>25</v>
       </c>
     </row>

--- a/Params.xlsx
+++ b/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merte\Documents\PrunedRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D446AFB-F160-458A-B8AF-37D7FE9D09E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8BD30D-7058-4D18-898B-9CE10D534DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1905" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-1785" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +375,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,6 +481,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -761,7 +770,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -869,7 +878,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -925,7 +934,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -981,7 +990,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="33" t="s">
@@ -1037,7 +1046,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -1093,7 +1102,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="33" t="s">
@@ -1149,7 +1158,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -1279,7 +1288,7 @@
       <c r="R10" s="30"/>
     </row>
     <row r="11" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="33" t="s">
@@ -1335,7 +1344,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="33" t="s">

--- a/Params.xlsx
+++ b/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merte\Documents\PrunedRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8BD30D-7058-4D18-898B-9CE10D534DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE457A3-C7D5-4E93-99AB-BF43B17B20BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-1785" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17580" yWindow="450" windowWidth="15690" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t>leakage_rate</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>N5A3</t>
+  </si>
+  <si>
+    <t>N10A3</t>
   </si>
 </sst>
 </file>
@@ -767,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F13" sqref="A13:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1400,64 +1403,64 @@
       </c>
     </row>
     <row r="13" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
+      <c r="A13" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21">
-        <v>75</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="G13" s="22">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16">
+        <v>50</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="16">
         <v>0.5</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="23">
-        <v>15</v>
-      </c>
-      <c r="N13" s="23">
-        <v>5</v>
-      </c>
-      <c r="O13" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="P13" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20">
+      <c r="K13" s="15"/>
+      <c r="L13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="18">
+        <v>15</v>
+      </c>
+      <c r="N13" s="18">
+        <v>5</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="P13" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>53</v>
@@ -1467,7 +1470,7 @@
         <v>75</v>
       </c>
       <c r="E14" s="21">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F14" s="21">
         <v>0.9</v>
@@ -1512,64 +1515,64 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>23</v>
+      <c r="A15" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25">
-        <v>100</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="F15" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G15" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H15" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="25">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21">
+        <v>75</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="21">
         <v>0.5</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="27">
-        <v>15</v>
-      </c>
-      <c r="N15" s="27">
-        <v>5</v>
-      </c>
-      <c r="O15" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="P15" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24">
+      <c r="K15" s="20"/>
+      <c r="L15" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="23">
+        <v>15</v>
+      </c>
+      <c r="N15" s="23">
+        <v>5</v>
+      </c>
+      <c r="O15" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="P15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>53</v>
@@ -1579,7 +1582,7 @@
         <v>100</v>
       </c>
       <c r="E16" s="25">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F16" s="25">
         <v>0.9</v>
@@ -1624,82 +1627,82 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="34"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="16"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-    </row>
-    <row r="18" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16">
-        <v>50</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G18" s="17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H18" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="18">
-        <v>15</v>
-      </c>
-      <c r="N18" s="18">
-        <v>5</v>
-      </c>
-      <c r="O18" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="P18" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15">
-        <v>25</v>
-      </c>
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25">
+        <v>100</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="24"/>
+      <c r="L17" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="27">
+        <v>15</v>
+      </c>
+      <c r="N17" s="27">
+        <v>5</v>
+      </c>
+      <c r="O17" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="P17" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="34"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="16"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>54</v>
@@ -1709,7 +1712,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="16">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F19" s="16">
         <v>0.9</v>
@@ -1754,64 +1757,64 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>27</v>
+      <c r="A20" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21">
-        <v>75</v>
-      </c>
-      <c r="E20" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="F20" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="G20" s="22">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H20" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="C20" s="15"/>
+      <c r="D20" s="16">
+        <v>50</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G20" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="16">
         <v>0.5</v>
       </c>
       <c r="J20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="23">
-        <v>15</v>
-      </c>
-      <c r="N20" s="23">
-        <v>5</v>
-      </c>
-      <c r="O20" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="P20" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20">
+      <c r="K20" s="15"/>
+      <c r="L20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="18">
+        <v>15</v>
+      </c>
+      <c r="N20" s="18">
+        <v>5</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="P20" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>54</v>
@@ -1821,7 +1824,7 @@
         <v>75</v>
       </c>
       <c r="E21" s="21">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F21" s="21">
         <v>0.9</v>
@@ -1866,64 +1869,64 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>29</v>
+      <c r="A22" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25">
-        <v>100</v>
-      </c>
-      <c r="E22" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="F22" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G22" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H22" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="25">
+      <c r="C22" s="20"/>
+      <c r="D22" s="21">
+        <v>75</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G22" s="22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="21">
         <v>0.5</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="27">
-        <v>15</v>
-      </c>
-      <c r="N22" s="27">
-        <v>5</v>
-      </c>
-      <c r="O22" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="P22" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24">
+      <c r="K22" s="20"/>
+      <c r="L22" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="23">
+        <v>15</v>
+      </c>
+      <c r="N22" s="23">
+        <v>5</v>
+      </c>
+      <c r="O22" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="P22" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>54</v>
@@ -1933,7 +1936,7 @@
         <v>100</v>
       </c>
       <c r="E23" s="25">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F23" s="25">
         <v>0.9</v>
@@ -1977,70 +1980,70 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
-      <c r="B24" s="35"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16">
-        <v>50</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G25" s="17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H25" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="18">
-        <v>15</v>
-      </c>
-      <c r="N25" s="18">
-        <v>5</v>
-      </c>
-      <c r="O25" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="P25" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R25" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15">
-        <v>25</v>
-      </c>
+    <row r="24" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25">
+        <v>100</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G24" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="27">
+        <v>15</v>
+      </c>
+      <c r="N24" s="27">
+        <v>5</v>
+      </c>
+      <c r="O24" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="P24" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="32"/>
+      <c r="B25" s="35"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>55</v>
@@ -2050,7 +2053,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="16">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F26" s="16">
         <v>0.9</v>
@@ -2095,64 +2098,64 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>33</v>
+      <c r="A27" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21">
-        <v>75</v>
-      </c>
-      <c r="E27" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="F27" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="G27" s="22">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H27" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="21">
+      <c r="C27" s="15"/>
+      <c r="D27" s="16">
+        <v>50</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G27" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="16">
         <v>0.5</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" s="23">
-        <v>15</v>
-      </c>
-      <c r="N27" s="23">
-        <v>5</v>
-      </c>
-      <c r="O27" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="P27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20">
+      <c r="K27" s="15"/>
+      <c r="L27" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="18">
+        <v>15</v>
+      </c>
+      <c r="N27" s="18">
+        <v>5</v>
+      </c>
+      <c r="O27" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="P27" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>55</v>
@@ -2162,7 +2165,7 @@
         <v>75</v>
       </c>
       <c r="E28" s="21">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F28" s="21">
         <v>0.9</v>
@@ -2207,64 +2210,64 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>35</v>
+      <c r="A29" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25">
-        <v>100</v>
-      </c>
-      <c r="E29" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="F29" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G29" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H29" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="25">
+      <c r="C29" s="20"/>
+      <c r="D29" s="21">
+        <v>75</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G29" s="22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="21">
         <v>0.5</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" s="27">
-        <v>15</v>
-      </c>
-      <c r="N29" s="27">
-        <v>5</v>
-      </c>
-      <c r="O29" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="P29" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R29" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24">
+      <c r="K29" s="20"/>
+      <c r="L29" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="23">
+        <v>15</v>
+      </c>
+      <c r="N29" s="23">
+        <v>5</v>
+      </c>
+      <c r="O29" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="P29" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>55</v>
@@ -2274,7 +2277,7 @@
         <v>100</v>
       </c>
       <c r="E30" s="25">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F30" s="25">
         <v>0.9</v>
@@ -2319,86 +2322,86 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
+      <c r="A31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25">
+        <v>100</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G31" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H31" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="24"/>
+      <c r="L31" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="27">
+        <v>15</v>
+      </c>
+      <c r="N31" s="27">
+        <v>5</v>
+      </c>
+      <c r="O31" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="P31" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16">
-        <v>50</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="F32" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="G32" s="17">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H32" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" s="18">
-        <v>15</v>
-      </c>
-      <c r="N32" s="18">
-        <v>5</v>
-      </c>
-      <c r="O32" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="P32" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R32" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15">
-        <v>25</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
     </row>
     <row r="33" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>56</v>
@@ -2408,7 +2411,7 @@
         <v>50</v>
       </c>
       <c r="E33" s="16">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F33" s="16">
         <v>0.9</v>
@@ -2453,64 +2456,64 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>39</v>
+      <c r="A34" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21">
-        <v>75</v>
-      </c>
-      <c r="E34" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="F34" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="G34" s="22">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H34" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I34" s="21">
+      <c r="C34" s="15"/>
+      <c r="D34" s="16">
+        <v>50</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G34" s="17">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="16">
         <v>0.5</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" s="23">
-        <v>15</v>
-      </c>
-      <c r="N34" s="23">
-        <v>5</v>
-      </c>
-      <c r="O34" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="P34" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R34" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20">
+      <c r="K34" s="15"/>
+      <c r="L34" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="18">
+        <v>15</v>
+      </c>
+      <c r="N34" s="18">
+        <v>5</v>
+      </c>
+      <c r="O34" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="P34" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>56</v>
@@ -2520,7 +2523,7 @@
         <v>75</v>
       </c>
       <c r="E35" s="21">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F35" s="21">
         <v>0.9</v>
@@ -2565,64 +2568,64 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>41</v>
+      <c r="A36" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25">
-        <v>100</v>
-      </c>
-      <c r="E36" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="F36" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="G36" s="26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H36" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I36" s="25">
+      <c r="C36" s="20"/>
+      <c r="D36" s="21">
+        <v>75</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G36" s="22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H36" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="21">
         <v>0.5</v>
       </c>
       <c r="J36" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" s="27">
-        <v>15</v>
-      </c>
-      <c r="N36" s="27">
-        <v>5</v>
-      </c>
-      <c r="O36" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="P36" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R36" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24">
+      <c r="K36" s="20"/>
+      <c r="L36" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="23">
+        <v>15</v>
+      </c>
+      <c r="N36" s="23">
+        <v>5</v>
+      </c>
+      <c r="O36" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="P36" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>56</v>
@@ -2632,7 +2635,7 @@
         <v>100</v>
       </c>
       <c r="E37" s="25">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F37" s="25">
         <v>0.9</v>
@@ -2673,6 +2676,62 @@
       </c>
       <c r="S37" s="24"/>
       <c r="T37" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25">
+        <v>100</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="G38" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H38" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="24"/>
+      <c r="L38" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="27">
+        <v>15</v>
+      </c>
+      <c r="N38" s="27">
+        <v>5</v>
+      </c>
+      <c r="O38" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="P38" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R38" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24">
         <v>25</v>
       </c>
     </row>

--- a/Params.xlsx
+++ b/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merte\Documents\PrunedRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE457A3-C7D5-4E93-99AB-BF43B17B20BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28761E3-0EC7-4089-BDDB-AC4A10225C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17580" yWindow="450" windowWidth="15690" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-1785" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -773,7 +773,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="A13:T13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1217,7 +1217,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -1459,7 +1459,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="33" t="s">

--- a/Params.xlsx
+++ b/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merte\Documents\PrunedRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28761E3-0EC7-4089-BDDB-AC4A10225C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2285963-D694-495C-8101-2E4E6C26DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-1785" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17580" yWindow="450" windowWidth="15690" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -773,7 +773,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1515,7 +1515,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="36" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="33" t="s">

--- a/Params.xlsx
+++ b/Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merte\Documents\PrunedRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2285963-D694-495C-8101-2E4E6C26DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980EFB2-FAAD-4D42-8368-0072F63C6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17580" yWindow="450" windowWidth="15690" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1571,7 +1571,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="33" t="s">

--- a/Params.xlsx
+++ b/Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merte\Documents\PrunedRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980EFB2-FAAD-4D42-8368-0072F63C6A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2027E8-835C-4986-9D9F-196B0B85BDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17580" yWindow="450" windowWidth="15690" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1701,7 +1701,7 @@
       <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="33" t="s">

--- a/Params.xlsx
+++ b/Params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merte\Documents\PrunedRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2027E8-835C-4986-9D9F-196B0B85BDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54EEA30-8582-4AB5-8BB0-68B138E010DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27630" yWindow="-615" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -138,24 +138,6 @@
     <t>SC1C2</t>
   </si>
   <si>
-    <t>SC2A1</t>
-  </si>
-  <si>
-    <t>SC2A2</t>
-  </si>
-  <si>
-    <t>SC2B1</t>
-  </si>
-  <si>
-    <t>SC2B2</t>
-  </si>
-  <si>
-    <t>SC2C1</t>
-  </si>
-  <si>
-    <t>SC2C2</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -195,13 +177,31 @@
     <t>sincos</t>
   </si>
   <si>
-    <t>sincos2</t>
-  </si>
-  <si>
     <t>N5A3</t>
   </si>
   <si>
     <t>N10A3</t>
+  </si>
+  <si>
+    <t>SC3A1</t>
+  </si>
+  <si>
+    <t>SC3A2</t>
+  </si>
+  <si>
+    <t>SC3B1</t>
+  </si>
+  <si>
+    <t>SC3B2</t>
+  </si>
+  <si>
+    <t>SC3C1</t>
+  </si>
+  <si>
+    <t>SC3C2</t>
+  </si>
+  <si>
+    <t>sincos3</t>
   </si>
 </sst>
 </file>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -809,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -829,31 +829,31 @@
     </row>
     <row r="2" spans="1:20" s="8" customFormat="1" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>2</v>
@@ -885,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16">
@@ -907,7 +907,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="18" t="b">
@@ -941,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16">
@@ -963,7 +963,7 @@
         <v>0.5</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="18" t="b">
@@ -994,10 +994,10 @@
     </row>
     <row r="5" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16">
@@ -1019,7 +1019,7 @@
         <v>0.5</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="18" t="b">
@@ -1053,7 +1053,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="21">
@@ -1075,7 +1075,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="23" t="b">
@@ -1109,7 +1109,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21">
@@ -1131,7 +1131,7 @@
         <v>0.5</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="23" t="b">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25">
@@ -1187,7 +1187,7 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="27" t="b">
@@ -1221,7 +1221,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25">
@@ -1243,7 +1243,7 @@
         <v>0.5</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="27" t="b">
@@ -1295,7 +1295,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="16">
@@ -1317,7 +1317,7 @@
         <v>0.5</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="18" t="b">
@@ -1351,7 +1351,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="16">
@@ -1373,7 +1373,7 @@
         <v>0.5</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="18" t="b">
@@ -1404,10 +1404,10 @@
     </row>
     <row r="13" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="16">
@@ -1429,7 +1429,7 @@
         <v>0.5</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="18" t="b">
@@ -1463,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21">
@@ -1485,7 +1485,7 @@
         <v>0.5</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="23" t="b">
@@ -1519,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="21">
@@ -1541,7 +1541,7 @@
         <v>0.5</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="23" t="b">
@@ -1575,7 +1575,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25">
@@ -1597,7 +1597,7 @@
         <v>0.5</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="27" t="b">
@@ -1627,11 +1627,11 @@
       </c>
     </row>
     <row r="17" spans="1:20" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="36" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="25">
@@ -1653,7 +1653,7 @@
         <v>0.5</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="27" t="b">
@@ -1705,7 +1705,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="16">
@@ -1727,7 +1727,7 @@
         <v>0.5</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="18" t="b">
@@ -1757,11 +1757,11 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="16">
@@ -1783,7 +1783,7 @@
         <v>0.5</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="18" t="b">
@@ -1813,11 +1813,11 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="21">
@@ -1839,7 +1839,7 @@
         <v>0.5</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="23" t="b">
@@ -1869,11 +1869,11 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="21">
@@ -1895,7 +1895,7 @@
         <v>0.5</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="23" t="b">
@@ -1925,11 +1925,11 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="25">
@@ -1951,7 +1951,7 @@
         <v>0.5</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="27" t="b">
@@ -1981,11 +1981,11 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="25">
@@ -2007,7 +2007,7 @@
         <v>0.5</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K24" s="24"/>
       <c r="L24" s="27" t="b">
@@ -2042,11 +2042,11 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="16">
@@ -2068,7 +2068,7 @@
         <v>0.5</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="18" t="b">
@@ -2102,7 +2102,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="16">
@@ -2124,7 +2124,7 @@
         <v>0.5</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="18" t="b">
@@ -2158,7 +2158,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="21">
@@ -2180,7 +2180,7 @@
         <v>0.5</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="23" t="b">
@@ -2214,7 +2214,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="21">
@@ -2236,7 +2236,7 @@
         <v>0.5</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="23" t="b">
@@ -2270,7 +2270,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="25">
@@ -2292,7 +2292,7 @@
         <v>0.5</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K30" s="24"/>
       <c r="L30" s="27" t="b">
@@ -2326,7 +2326,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="25">
@@ -2348,7 +2348,7 @@
         <v>0.5</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="27" t="b">
@@ -2401,10 +2401,10 @@
     </row>
     <row r="33" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="16">
@@ -2426,7 +2426,7 @@
         <v>0.5</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="18" t="b">
@@ -2457,10 +2457,10 @@
     </row>
     <row r="34" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="16">
@@ -2482,7 +2482,7 @@
         <v>0.5</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="18" t="b">
@@ -2513,10 +2513,10 @@
     </row>
     <row r="35" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="21">
@@ -2538,7 +2538,7 @@
         <v>0.5</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K35" s="20"/>
       <c r="L35" s="23" t="b">
@@ -2569,10 +2569,10 @@
     </row>
     <row r="36" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="21">
@@ -2594,7 +2594,7 @@
         <v>0.5</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="23" t="b">
@@ -2625,10 +2625,10 @@
     </row>
     <row r="37" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="25">
@@ -2650,7 +2650,7 @@
         <v>0.5</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K37" s="24"/>
       <c r="L37" s="27" t="b">
@@ -2681,10 +2681,10 @@
     </row>
     <row r="38" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C38" s="24"/>
       <c r="D38" s="25">
@@ -2706,7 +2706,7 @@
         <v>0.5</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K38" s="24"/>
       <c r="L38" s="27" t="b">
